--- a/data/trans_camb/P37-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P37-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P37-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P37-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,46</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,69; 1,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,41; 7,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 19,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 18,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,29; 12,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,99; 34,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,85; 7,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,71; 6,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,76; 24,4</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>161,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,73%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,23; 10,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,28; 45,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,5; 127,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,53; 163,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,24; 117,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,96; 341,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,87; 50,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,17; 44,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,66; 163,55</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,13</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,52; 12,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 7,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,81; 24,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 8,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 7,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,31; 27,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,45; 8,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 6,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,15; 24,53</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>138,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>147,14%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,97; 104,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,53; 57,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,73; 201,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 63,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,64; 57,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>104,59; 223,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,66; 63,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 45,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>113,8; 192,17</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,73</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 7,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 3,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,04; 16,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 5,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 5,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,02; 23,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 5,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 3,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,19; 19,13</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>121,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,06%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 55,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,46; 27,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,25; 133,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,69; 38,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,78; 36,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,17; 158,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,16; 39,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,79; 25,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>80,54; 137,3</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,22</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,97</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 6,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 7,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,2; 22,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; 5,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 3,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,41; 46,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 4,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 4,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,35; 36,3</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,07%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,73%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>156,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,12%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,21; 55,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; 64,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>87,98; 203,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,15; 38,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,4; 25,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>90,89; 302,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,97; 34,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,32; 32,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>106,4; 257,16</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,35</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 7,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 5,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,47; 27,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 5,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 4,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,72; 26,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 5,55</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 3,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,46; 25,49</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>174,39%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,14%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>155,14%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,97; 62,04</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,35; 42,58</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>128,57; 226,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 40,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,62; 35,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>104,59; 185,31</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,89; 41,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 28,87</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>125,71; 186,83</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,77</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,44</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,28</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,81; 5,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 3,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,6; 19,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 4,2</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 3,36</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,77; 28,3</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 4,3</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 2,83</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,64; 24,14</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,03%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>141,55%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,3%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,15; 41,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,07; 27,78</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>105,02; 151,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,08; 27,48</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 22,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>119,25; 184,06</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,45; 30,45</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,99; 19,85</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>120,29; 164,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P37-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P37-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,16</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>16,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,53</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,68</t>
+          <t>22,96</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,46</t>
+          <t>19,78</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 1,33</t>
+          <t>0,71; 9,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 7,29</t>
+          <t>-2,35; 5,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 19,94</t>
+          <t>11,88; 21,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 18,67</t>
+          <t>0,41; 8,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 12,61</t>
+          <t>-1,08; 7,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,99; 34,02</t>
+          <t>18,96; 26,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 7,98</t>
+          <t>1,57; 7,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 6,58</t>
+          <t>-0,41; 4,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 24,4</t>
+          <t>16,68; 22,82</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-37,68%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-19,12%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>107,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,89%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>161,77%</t>
+          <t>154,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,9%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>88,73%</t>
+          <t>131,37%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,23; 10,45</t>
+          <t>3,93; 71,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,28; 45,95</t>
+          <t>-14,09; 40,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 127,84</t>
+          <t>65,2; 156,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 163,62</t>
+          <t>2,49; 61,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,24; 117,25</t>
+          <t>-6,25; 53,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>74,96; 341,0</t>
+          <t>112,05; 211,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,87; 50,8</t>
+          <t>9,89; 53,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,17; 44,1</t>
+          <t>-2,5; 35,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,66; 163,55</t>
+          <t>99,67; 167,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,38</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,72</t>
+          <t>19,56</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,13</t>
+          <t>12,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 12,47</t>
+          <t>0,47; 7,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 7,01</t>
+          <t>-2,85; 3,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,81; 24,05</t>
+          <t>-3,5; 14,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 8,01</t>
+          <t>-1,26; 5,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 7,1</t>
+          <t>-1,71; 5,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,31; 27,15</t>
+          <t>15,79; 22,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 8,34</t>
+          <t>0,68; 5,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 6,02</t>
+          <t>-1,11; 3,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,15; 24,53</t>
+          <t>4,33; 17,38</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>54,41%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>138,91%</t>
+          <t>54,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>153,82%</t>
+          <t>120,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,34%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>147,14%</t>
+          <t>84,52%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,97; 104,27</t>
+          <t>2,09; 55,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 57,86</t>
+          <t>-18,46; 27,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,73; 201,74</t>
+          <t>-24,03; 107,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 63,93</t>
+          <t>-6,69; 38,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 57,62</t>
+          <t>-9,78; 36,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>104,59; 223,07</t>
+          <t>87,91; 157,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,66; 63,74</t>
+          <t>4,16; 39,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 45,86</t>
+          <t>-6,79; 25,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>113,8; 192,17</t>
+          <t>29,91; 121,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,89</t>
+          <t>16,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,73</t>
+          <t>30,39</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,35</t>
+          <t>24,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 7,1</t>
+          <t>-1,32; 6,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 3,55</t>
+          <t>-0,5; 7,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,04; 16,67</t>
+          <t>12,22; 20,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 5,6</t>
+          <t>-2,9; 5,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 5,41</t>
+          <t>-4,35; 3,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,02; 23,0</t>
+          <t>13,94; 57,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,45</t>
+          <t>-1,08; 4,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,5</t>
+          <t>-1,15; 4,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,19; 19,13</t>
+          <t>15,11; 45,84</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>92,23%</t>
+          <t>130,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>-2,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>121,21%</t>
+          <t>188,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>108,06%</t>
+          <t>170,59%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,09; 55,54</t>
+          <t>-9,21; 55,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 27,99</t>
+          <t>-3,4; 64,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>50,25; 133,86</t>
+          <t>83,07; 194,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 38,11</t>
+          <t>-16,15; 38,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 36,69</t>
+          <t>-24,4; 25,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>88,17; 158,39</t>
+          <t>83,36; 388,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,16; 39,34</t>
+          <t>-6,97; 34,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 25,82</t>
+          <t>-7,32; 32,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>80,54; 137,3</t>
+          <t>102,05; 331,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,76</t>
+          <t>22,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,22</t>
+          <t>20,29</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21,97</t>
+          <t>21,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 6,35</t>
+          <t>0,48; 7,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,33</t>
+          <t>-1,11; 5,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,2; 22,03</t>
+          <t>18,61; 26,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 5,27</t>
+          <t>-0,84; 5,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 3,53</t>
+          <t>-1,7; 4,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,41; 46,74</t>
+          <t>13,18; 24,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,54</t>
+          <t>0,75; 5,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 4,22</t>
+          <t>-0,73; 3,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,35; 36,3</t>
+          <t>17,6; 24,17</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>29,23%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>137,07%</t>
+          <t>169,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,73%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>156,63%</t>
+          <t>127,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151,12%</t>
+          <t>145,29%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 55,95</t>
+          <t>1,97; 62,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 64,17</t>
+          <t>-7,35; 42,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>87,98; 203,3</t>
+          <t>123,81; 220,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 38,13</t>
+          <t>-4,64; 40,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,4; 25,62</t>
+          <t>-9,62; 35,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>90,89; 302,05</t>
+          <t>81,41; 175,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 34,88</t>
+          <t>4,89; 41,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 32,28</t>
+          <t>-4,68; 28,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>106,4; 257,16</t>
+          <t>113,03; 175,5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>23,41</t>
+          <t>15,12</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>22,35</t>
+          <t>23,19</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>22,89</t>
+          <t>19,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 7,44</t>
+          <t>1,81; 5,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 5,07</t>
+          <t>0,29; 3,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>19,47; 27,04</t>
+          <t>8,56; 18,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 5,78</t>
+          <t>0,6; 4,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,93</t>
+          <t>-0,58; 3,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,72; 26,1</t>
+          <t>18,68; 34,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,55</t>
+          <t>1,75; 4,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,91</t>
+          <t>0,32; 2,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>20,46; 25,49</t>
+          <t>16,01; 26,37</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>174,39%</t>
+          <t>108,98%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>140,14%</t>
+          <t>146,28%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>155,14%</t>
+          <t>129,58%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,97; 62,04</t>
+          <t>12,15; 41,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 42,58</t>
+          <t>2,07; 27,78</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>128,57; 226,57</t>
+          <t>63,78; 134,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 40,33</t>
+          <t>3,08; 27,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 35,36</t>
+          <t>-3,42; 22,43</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>104,59; 185,31</t>
+          <t>114,63; 217,53</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,89; 41,02</t>
+          <t>11,45; 30,45</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 28,87</t>
+          <t>1,99; 19,85</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>125,71; 186,83</t>
+          <t>104,37; 175,99</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>17,77</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,4</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>22,44</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3,08</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>20,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 5,42</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 3,57</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>15,6; 19,88</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 4,2</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 3,36</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>19,77; 28,3</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 4,3</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 2,83</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>18,64; 24,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>27,23%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>13,43%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>128,03%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>15,16%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>9,08%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>141,55%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>20,71%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>11,11%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>136,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>12,15; 41,44</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 27,78</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>105,02; 151,89</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>3,08; 27,48</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 22,43</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>119,25; 184,06</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>11,45; 30,45</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 19,85</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>120,29; 164,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P37-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P37-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 9,59</t>
+          <t>1,36; 9,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 5,41</t>
+          <t>-1,96; 6,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,88; 21,03</t>
+          <t>12,17; 20,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 8,04</t>
+          <t>0,31; 7,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 7,06</t>
+          <t>-0,91; 6,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,96; 26,6</t>
+          <t>18,99; 26,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,41</t>
+          <t>1,75; 7,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 4,95</t>
+          <t>-0,48; 5,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,68; 22,82</t>
+          <t>16,62; 22,7</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 71,19</t>
+          <t>7,64; 70,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 40,94</t>
+          <t>-11,56; 45,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,2; 156,69</t>
+          <t>69,39; 155,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 61,67</t>
+          <t>0,97; 58,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 53,81</t>
+          <t>-5,7; 52,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>112,05; 211,37</t>
+          <t>109,08; 208,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,89; 53,17</t>
+          <t>10,83; 54,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 35,22</t>
+          <t>-2,99; 37,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>99,67; 167,78</t>
+          <t>98,6; 163,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 7,1</t>
+          <t>0,2; 6,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 3,55</t>
+          <t>-2,56; 3,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 14,51</t>
+          <t>-2,39; 14,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 5,6</t>
+          <t>-1,06; 6,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 5,41</t>
+          <t>-1,49; 5,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 22,77</t>
+          <t>15,74; 23,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,45</t>
+          <t>0,48; 5,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,5</t>
+          <t>-1,18; 3,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 17,38</t>
+          <t>3,69; 17,31</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 55,54</t>
+          <t>0,93; 54,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 27,99</t>
+          <t>-16,54; 26,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 107,65</t>
+          <t>-14,85; 108,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 38,11</t>
+          <t>-6,14; 42,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 36,69</t>
+          <t>-8,82; 37,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,91; 157,01</t>
+          <t>84,8; 162,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 39,34</t>
+          <t>2,91; 38,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 25,82</t>
+          <t>-7,49; 24,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,91; 121,06</t>
+          <t>26,52; 118,68</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 6,35</t>
+          <t>-0,81; 6,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,33</t>
+          <t>-0,12; 7,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,22; 20,98</t>
+          <t>12,62; 21,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 5,27</t>
+          <t>-3,26; 4,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 3,53</t>
+          <t>-4,61; 3,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,94; 57,16</t>
+          <t>13,86; 54,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,54</t>
+          <t>-0,72; 4,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 4,22</t>
+          <t>-1,18; 4,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,11; 45,84</t>
+          <t>15,58; 45,48</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 55,95</t>
+          <t>-5,71; 57,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 64,17</t>
+          <t>-0,39; 69,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>83,07; 194,45</t>
+          <t>83,24; 190,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 38,13</t>
+          <t>-17,33; 35,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,4; 25,62</t>
+          <t>-25,25; 24,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>83,36; 388,36</t>
+          <t>82,55; 381,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 34,88</t>
+          <t>-4,57; 36,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 32,28</t>
+          <t>-7,41; 36,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>102,05; 331,91</t>
+          <t>103,73; 318,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 7,44</t>
+          <t>0,51; 6,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 5,07</t>
+          <t>-1,39; 4,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,61; 26,37</t>
+          <t>18,99; 26,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 5,78</t>
+          <t>-1,0; 5,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,93</t>
+          <t>-1,8; 4,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,18; 24,54</t>
+          <t>12,97; 24,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,55</t>
+          <t>0,5; 5,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,91</t>
+          <t>-0,74; 4,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,6; 24,17</t>
+          <t>17,11; 24,23</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,97; 62,04</t>
+          <t>3,53; 58,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 42,58</t>
+          <t>-8,74; 42,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>123,81; 220,68</t>
+          <t>126,38; 224,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 40,33</t>
+          <t>-5,91; 42,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 35,36</t>
+          <t>-10,28; 34,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>81,41; 175,81</t>
+          <t>80,59; 169,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,89; 41,02</t>
+          <t>2,72; 38,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 28,87</t>
+          <t>-4,62; 30,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>113,03; 175,5</t>
+          <t>110,55; 179,73</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,42</t>
+          <t>1,81; 5,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,57</t>
+          <t>0,16; 3,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,56; 18,03</t>
+          <t>8,72; 18,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,2</t>
+          <t>0,42; 4,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 3,36</t>
+          <t>-0,46; 3,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,68; 34,08</t>
+          <t>19,03; 34,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,3</t>
+          <t>1,83; 4,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,83</t>
+          <t>0,35; 2,85</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16,01; 26,37</t>
+          <t>15,72; 25,55</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>12,15; 41,44</t>
+          <t>12,08; 41,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2,07; 27,78</t>
+          <t>1,03; 27,47</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>63,78; 134,46</t>
+          <t>64,99; 135,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,08; 27,48</t>
+          <t>2,69; 28,77</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 22,43</t>
+          <t>-2,84; 22,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>114,63; 217,53</t>
+          <t>117,58; 225,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>11,45; 30,45</t>
+          <t>11,77; 30,65</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,99; 19,85</t>
+          <t>2,22; 19,99</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>104,37; 175,99</t>
+          <t>102,76; 171,68</t>
         </is>
       </c>
     </row>
